--- a/teste_modelo.xlsx
+++ b/teste_modelo.xlsx
@@ -486,10 +486,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1234</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -530,10 +528,8 @@
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1234</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -574,10 +570,8 @@
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A4" t="n">
+        <v>1234</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -618,10 +612,8 @@
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A5" t="n">
+        <v>1234</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -662,10 +654,8 @@
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A6" t="n">
+        <v>1234</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -706,10 +696,8 @@
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A7" t="n">
+        <v>1234</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -750,10 +738,8 @@
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A8" t="n">
+        <v>1234</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -794,10 +780,8 @@
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A9" t="n">
+        <v>1234</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -838,10 +822,8 @@
       <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A10" t="n">
+        <v>1234</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -882,10 +864,8 @@
       <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A11" t="n">
+        <v>1234</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -926,10 +906,8 @@
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A12" t="n">
+        <v>1234</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -970,10 +948,8 @@
       <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A13" t="n">
+        <v>1234</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1014,10 +990,8 @@
       <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A14" t="n">
+        <v>1234</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1058,10 +1032,8 @@
       <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A15" t="n">
+        <v>1234</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1102,10 +1074,8 @@
       <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A16" t="n">
+        <v>1234</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1146,10 +1116,8 @@
       <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A17" t="n">
+        <v>1234</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1190,10 +1158,8 @@
       <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A18" t="n">
+        <v>1234</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1234,10 +1200,8 @@
       <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A19" t="n">
+        <v>1234</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1278,10 +1242,8 @@
       <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A20" t="n">
+        <v>1234</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1322,10 +1284,8 @@
       <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A21" t="n">
+        <v>1234</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1366,10 +1326,8 @@
       <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A22" t="n">
+        <v>1234</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1410,10 +1368,8 @@
       <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A23" t="n">
+        <v>1234</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1454,10 +1410,8 @@
       <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A24" t="n">
+        <v>1234</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1498,10 +1452,8 @@
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A25" t="n">
+        <v>1234</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1542,10 +1494,8 @@
       <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A26" t="n">
+        <v>1234</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1586,10 +1536,8 @@
       <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A27" t="n">
+        <v>1234</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1630,10 +1578,8 @@
       <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A28" t="n">
+        <v>1234</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1672,10 +1618,8 @@
       <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A29" t="n">
+        <v>1234</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1714,10 +1658,8 @@
       <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A30" t="n">
+        <v>1234</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1758,10 +1700,8 @@
       <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A31" t="n">
+        <v>1234</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1802,10 +1742,8 @@
       <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A32" t="n">
+        <v>1234</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1846,10 +1784,8 @@
       <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A33" t="n">
+        <v>1234</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1890,10 +1826,8 @@
       <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A34" t="n">
+        <v>1234</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1934,10 +1868,8 @@
       <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A35" t="n">
+        <v>1234</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1978,10 +1910,8 @@
       <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A36" t="n">
+        <v>1234</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2022,10 +1952,8 @@
       <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A37" t="n">
+        <v>1234</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2066,10 +1994,8 @@
       <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A38" t="n">
+        <v>1234</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2110,10 +2036,8 @@
       <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A39" t="n">
+        <v>1234</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2154,10 +2078,8 @@
       <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A40" t="n">
+        <v>1234</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2198,10 +2120,8 @@
       <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A41" t="n">
+        <v>1234</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2242,10 +2162,8 @@
       <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A42" t="n">
+        <v>1234</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2286,10 +2204,8 @@
       <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A43" t="n">
+        <v>1234</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2330,10 +2246,8 @@
       <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A44" t="n">
+        <v>1234</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2374,10 +2288,8 @@
       <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A45" t="n">
+        <v>1234</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2418,10 +2330,8 @@
       <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A46" t="n">
+        <v>1234</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2462,10 +2372,8 @@
       <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A47" t="n">
+        <v>1234</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2506,10 +2414,8 @@
       <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A48" t="n">
+        <v>1234</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2550,10 +2456,8 @@
       <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A49" t="n">
+        <v>1234</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2594,10 +2498,8 @@
       <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A50" t="n">
+        <v>1234</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2638,10 +2540,8 @@
       <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A51" t="n">
+        <v>1234</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2682,10 +2582,8 @@
       <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A52" t="n">
+        <v>1234</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2726,10 +2624,8 @@
       <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A53" t="n">
+        <v>1234</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2770,10 +2666,8 @@
       <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A54" t="n">
+        <v>1234</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2814,10 +2708,8 @@
       <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A55" t="n">
+        <v>1234</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2858,10 +2750,8 @@
       <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A56" t="n">
+        <v>1234</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2902,10 +2792,8 @@
       <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A57" t="n">
+        <v>1234</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2946,10 +2834,8 @@
       <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A58" t="n">
+        <v>1234</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2990,10 +2876,8 @@
       <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A59" t="n">
+        <v>1234</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3034,10 +2918,8 @@
       <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A60" t="n">
+        <v>1234</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3078,10 +2960,8 @@
       <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A61" t="n">
+        <v>1234</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3122,10 +3002,8 @@
       <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A62" t="n">
+        <v>1234</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3166,10 +3044,8 @@
       <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A63" t="n">
+        <v>1234</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3210,10 +3086,8 @@
       <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A64" t="n">
+        <v>1234</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3254,10 +3128,8 @@
       <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4632</t>
-        </is>
+      <c r="A65" t="n">
+        <v>1234</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
